--- a/Designs/Duckting_Grid.xlsx
+++ b/Designs/Duckting_Grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Ducting" sheetId="5" r:id="rId1"/>
@@ -13,17 +13,17 @@
     <sheet name="Macro, Sub &amp;Micro" sheetId="1" r:id="rId4"/>
     <sheet name="Micro &amp; Sub" sheetId="3" r:id="rId5"/>
     <sheet name="Classdiagram" sheetId="4" r:id="rId6"/>
-    <sheet name="Frontend" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId9"/>
-    <sheet name="Fronend_Test" sheetId="9" r:id="rId10"/>
+    <sheet name="Screenshot1" sheetId="7" r:id="rId7"/>
+    <sheet name="ScreenShot2" sheetId="10" r:id="rId8"/>
+    <sheet name="Test_Frontend" sheetId="9" r:id="rId9"/>
+    <sheet name="Feature_GridNumbering" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="165">
   <si>
     <t>Cuboid1</t>
   </si>
@@ -396,6 +396,155 @@
   <si>
     <t>r1/cub1_1/r1/mac1_1/r1/sub1_1/r2/mic2_2</t>
   </si>
+  <si>
+    <t>enAddressDefOrder</t>
+  </si>
+  <si>
+    <t>RowCol</t>
+  </si>
+  <si>
+    <t>ColRow</t>
+  </si>
+  <si>
+    <t>AddressDefOrder = enAddressDefOrder.RowCol</t>
+  </si>
+  <si>
+    <t>enAddressDefType</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Alfa</t>
+  </si>
+  <si>
+    <t>AddressDefRow = enAddressDefType.Numeric</t>
+  </si>
+  <si>
+    <t>AddressDefCol = enAddressDefType.Numeric</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <r>
+      <t>AddressDefCol = enAddressDefType.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alfa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AddressDefOrder = enAddressDefOrder.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ColRow</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -510,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -858,48 +1007,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1025,9 +1137,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,33 +1162,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,15 +1218,40 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1489,6 +1596,1067 @@
           <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Left Brace 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="695325"/>
+          <a:ext cx="114300" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-ZA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114298</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Left Brace 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1266824" y="-104776"/>
+          <a:ext cx="209550" cy="1028701"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-ZA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="641394" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="57150"/>
+          <a:ext cx="641394" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1100"/>
+            <a:t>Width 5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>234480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>94387</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="666336"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="33592" y="1066800"/>
+          <a:ext cx="666336" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1100"/>
+            <a:t>Height 6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2628900" y="1781175"/>
+          <a:ext cx="1581150" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3838575" y="1762125"/>
+          <a:ext cx="2085975" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1457325" y="1733550"/>
+          <a:ext cx="1000125" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Left Brace 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="695325"/>
+          <a:ext cx="114300" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-ZA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114298</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Left Brace 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1266824" y="-104776"/>
+          <a:ext cx="209550" cy="1028701"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-ZA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="641394" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="57150"/>
+          <a:ext cx="641394" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1100"/>
+            <a:t>Width 5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>234480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>94387</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="666336"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="33592" y="1066800"/>
+          <a:ext cx="666336" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1100"/>
+            <a:t>Height 6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2628900" y="1781175"/>
+          <a:ext cx="1581150" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3838575" y="1762125"/>
+          <a:ext cx="2085975" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1457325" y="1733550"/>
+          <a:ext cx="1000125" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Left Brace 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="4200525"/>
+          <a:ext cx="114300" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-ZA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114298</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Left Brace 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1266824" y="3400424"/>
+          <a:ext cx="209550" cy="1028701"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-ZA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="641394" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="3562350"/>
+          <a:ext cx="641394" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1100"/>
+            <a:t>Width 5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>234480</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>94387</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="666336"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="33592" y="4572000"/>
+          <a:ext cx="666336" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1100"/>
+            <a:t>Height 6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2628900" y="5267325"/>
+          <a:ext cx="1581150" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3838575" y="5248275"/>
+          <a:ext cx="2085975" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1457325" y="5219700"/>
+          <a:ext cx="1000125" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -6346,607 +7514,1921 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L95"/>
+  <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:K22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AC48" sqref="AC48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="13" width="3.7109375" customWidth="1"/>
-    <col min="18" max="45" width="3.7109375" customWidth="1"/>
+    <col min="1" max="30" width="3.7109375" customWidth="1"/>
+    <col min="31" max="31" width="44.85546875" customWidth="1"/>
+    <col min="32" max="32" width="2.7109375" customWidth="1"/>
+    <col min="34" max="34" width="4.85546875" customWidth="1"/>
+    <col min="35" max="35" width="3.140625" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" customWidth="1"/>
+    <col min="38" max="38" width="3.5703125" customWidth="1"/>
+    <col min="39" max="39" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="118" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="118" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="118" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="118" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="119" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
-      <c r="B15" s="120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
-      <c r="B16" s="118" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
-      <c r="B17" s="120" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
-      <c r="B18" s="118" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
-      <c r="B19" s="120" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="119"/>
-      <c r="B20" s="118" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="118" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="118" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="118" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="118" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="118" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="118" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="118" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="118" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="118" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="118" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="118" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="118" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="118" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="118" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="118" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="120" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="118" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="118" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="118" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="118" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="118" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="118" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="118" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="118" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="118" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="118" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="118" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="118" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="118" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="118" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="118" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="118" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="118" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="118" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="118" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="118" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="118" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="118" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="118" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="118" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="118" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="118" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="118" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="118" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="118" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="118" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="118" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="120" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="118" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="118" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="118" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="120" t="s">
-        <v>108</v>
-      </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="118" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="118" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="118" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="120" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="118" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="118" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="118" t="s">
-        <v>120</v>
-      </c>
+    <row r="1" spans="4:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="AF2" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="64"/>
+      <c r="AI2" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="64"/>
+      <c r="AL2" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM2" s="64"/>
+    </row>
+    <row r="3" spans="4:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="4:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="K4" s="121">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123"/>
+      <c r="R4" s="130">
+        <v>1.2</v>
+      </c>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="132"/>
+      <c r="Y4" s="139">
+        <v>1.3</v>
+      </c>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="141"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="4:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="E5" s="60">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5" s="60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="126"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="135"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="144"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI5" s="65"/>
+      <c r="AJ5" s="66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="E6" s="60">
+        <v>3.2</v>
+      </c>
+      <c r="F6" s="60">
+        <v>3.3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="126"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="135"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="144"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E7" s="60">
+        <v>4.2</v>
+      </c>
+      <c r="F7" s="60">
+        <v>4.3</v>
+      </c>
+      <c r="G7" s="70">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H7" s="61">
+        <v>4.5</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="126"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="135"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="144"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="4:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G8" s="60">
+        <v>5.4</v>
+      </c>
+      <c r="H8" s="61">
+        <v>5.5</v>
+      </c>
+      <c r="I8" s="52"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="126"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="135"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="144"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="4:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="H9" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="129"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="138"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="147"/>
+    </row>
+    <row r="10" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="AE10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI10" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ10" s="64"/>
+    </row>
+    <row r="11" spans="4:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="157">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11" s="157"/>
+      <c r="J11" s="157">
+        <v>1.2</v>
+      </c>
+      <c r="K11" s="157"/>
+      <c r="O11" s="157">
+        <v>1.3</v>
+      </c>
+      <c r="P11" s="157"/>
+      <c r="S11" s="157">
+        <v>1.4</v>
+      </c>
+      <c r="T11" s="157"/>
+      <c r="AE11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="4:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="78">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="F12" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="G12" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="H12" s="80">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J12" s="72">
+        <v>1.2</v>
+      </c>
+      <c r="K12" s="72">
+        <v>1.3</v>
+      </c>
+      <c r="L12" s="72">
+        <v>1.4</v>
+      </c>
+      <c r="M12" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="S12" s="78">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T12" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="U12" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="V12" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="W12" s="80">
+        <v>1.5</v>
+      </c>
+      <c r="X12" s="121">
+        <v>1.5</v>
+      </c>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="123"/>
+      <c r="AE12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="4:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="81">
+        <v>2.1</v>
+      </c>
+      <c r="E13" s="82">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F13" s="82">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G13" s="82">
+        <v>2.4</v>
+      </c>
+      <c r="H13" s="83">
+        <v>2.5</v>
+      </c>
+      <c r="I13" s="74">
+        <v>2.1</v>
+      </c>
+      <c r="J13" s="60">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K13" s="60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L13" s="60">
+        <v>2.4</v>
+      </c>
+      <c r="M13" s="61">
+        <v>2.5</v>
+      </c>
+      <c r="N13" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="O13" s="60">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P13" s="60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="R13" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="S13" s="81">
+        <v>2.1</v>
+      </c>
+      <c r="T13" s="82">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U13" s="82">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V13" s="82">
+        <v>2.4</v>
+      </c>
+      <c r="W13" s="83">
+        <v>2.5</v>
+      </c>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="125"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="126"/>
+    </row>
+    <row r="14" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="81">
+        <v>3.1</v>
+      </c>
+      <c r="E14" s="82">
+        <v>3.2</v>
+      </c>
+      <c r="F14" s="82">
+        <v>3.3</v>
+      </c>
+      <c r="G14" s="82">
+        <v>3.4</v>
+      </c>
+      <c r="H14" s="83">
+        <v>3.5</v>
+      </c>
+      <c r="I14" s="74">
+        <v>3.1</v>
+      </c>
+      <c r="J14" s="60">
+        <v>3.2</v>
+      </c>
+      <c r="K14" s="60">
+        <v>3.3</v>
+      </c>
+      <c r="L14" s="60">
+        <v>3.4</v>
+      </c>
+      <c r="M14" s="61">
+        <v>3.5</v>
+      </c>
+      <c r="N14" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="O14" s="60">
+        <v>3.2</v>
+      </c>
+      <c r="P14" s="60">
+        <v>3.3</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="R14" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="S14" s="81">
+        <v>3.1</v>
+      </c>
+      <c r="T14" s="60">
+        <v>3.2</v>
+      </c>
+      <c r="U14" s="60">
+        <v>3.3</v>
+      </c>
+      <c r="V14" s="82">
+        <v>3.4</v>
+      </c>
+      <c r="W14" s="83">
+        <v>3.5</v>
+      </c>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="126"/>
+      <c r="AI14" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ14" s="64"/>
+    </row>
+    <row r="15" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="81">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E15" s="82">
+        <v>4.2</v>
+      </c>
+      <c r="F15" s="82">
+        <v>4.3</v>
+      </c>
+      <c r="G15" s="82">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H15" s="83">
+        <v>4.5</v>
+      </c>
+      <c r="I15" s="74">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J15" s="60">
+        <v>4.2</v>
+      </c>
+      <c r="K15" s="60">
+        <v>4.3</v>
+      </c>
+      <c r="L15" s="60">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M15" s="61">
+        <v>4.5</v>
+      </c>
+      <c r="N15" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O15" s="60">
+        <v>4.2</v>
+      </c>
+      <c r="P15" s="60">
+        <v>4.3</v>
+      </c>
+      <c r="Q15" s="70">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R15" s="61">
+        <v>4.5</v>
+      </c>
+      <c r="S15" s="81">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T15" s="60">
+        <v>4.2</v>
+      </c>
+      <c r="U15" s="60">
+        <v>4.3</v>
+      </c>
+      <c r="V15" s="82">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W15" s="83">
+        <v>4.5</v>
+      </c>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="126"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="4:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="81">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E16" s="82">
+        <v>5.2</v>
+      </c>
+      <c r="F16" s="82">
+        <v>5.3</v>
+      </c>
+      <c r="G16" s="82">
+        <v>5.4</v>
+      </c>
+      <c r="H16" s="83">
+        <v>5.5</v>
+      </c>
+      <c r="I16" s="74">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J16" s="60">
+        <v>5.2</v>
+      </c>
+      <c r="K16" s="60">
+        <v>5.3</v>
+      </c>
+      <c r="L16" s="60">
+        <v>5.4</v>
+      </c>
+      <c r="M16" s="61">
+        <v>5.5</v>
+      </c>
+      <c r="N16" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O16" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="Q16" s="60">
+        <v>5.4</v>
+      </c>
+      <c r="R16" s="61">
+        <v>5.5</v>
+      </c>
+      <c r="S16" s="81">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T16" s="82">
+        <v>5.2</v>
+      </c>
+      <c r="U16" s="82">
+        <v>5.3</v>
+      </c>
+      <c r="V16" s="82">
+        <v>5.4</v>
+      </c>
+      <c r="W16" s="83">
+        <v>5.5</v>
+      </c>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="126"/>
+      <c r="AI16" s="67"/>
+      <c r="AJ16" s="68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="84">
+        <v>6.1</v>
+      </c>
+      <c r="E17" s="85">
+        <v>6.2</v>
+      </c>
+      <c r="F17" s="85">
+        <v>6.3</v>
+      </c>
+      <c r="G17" s="85">
+        <v>6.4</v>
+      </c>
+      <c r="H17" s="86">
+        <v>6.5</v>
+      </c>
+      <c r="I17" s="75">
+        <v>6.1</v>
+      </c>
+      <c r="J17" s="76">
+        <v>6.2</v>
+      </c>
+      <c r="K17" s="76">
+        <v>6.3</v>
+      </c>
+      <c r="L17" s="76">
+        <v>6.4</v>
+      </c>
+      <c r="M17" s="77">
+        <v>6.5</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="P17" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="R17" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="S17" s="84">
+        <v>6.1</v>
+      </c>
+      <c r="T17" s="85">
+        <v>6.2</v>
+      </c>
+      <c r="U17" s="85">
+        <v>6.3</v>
+      </c>
+      <c r="V17" s="85">
+        <v>6.4</v>
+      </c>
+      <c r="W17" s="86">
+        <v>6.5</v>
+      </c>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="129"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="159"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="159"/>
+      <c r="R18" s="159"/>
+      <c r="S18" s="159"/>
+      <c r="T18" s="159"/>
+      <c r="U18" s="159"/>
+      <c r="V18" s="159"/>
+      <c r="W18" s="159"/>
+      <c r="X18" s="159"/>
+      <c r="Y18" s="159"/>
+      <c r="Z18" s="159"/>
+      <c r="AA18" s="159"/>
+      <c r="AB18" s="159"/>
+      <c r="AC18" s="159"/>
+      <c r="AD18" s="159"/>
+      <c r="AE18" s="159"/>
+      <c r="AF18" s="159"/>
+      <c r="AG18" s="159"/>
+      <c r="AH18" s="159"/>
+      <c r="AI18" s="159"/>
+      <c r="AJ18" s="159"/>
+      <c r="AK18" s="159"/>
+      <c r="AL18" s="159"/>
+      <c r="AM18" s="159"/>
+    </row>
+    <row r="21" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I22" s="52"/>
+      <c r="K22" s="121">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="123"/>
+      <c r="Q22" s="130">
+        <v>2.1</v>
+      </c>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="132"/>
+      <c r="W22" s="139">
+        <v>3.1</v>
+      </c>
+      <c r="X22" s="140"/>
+      <c r="Y22" s="140"/>
+      <c r="Z22" s="140"/>
+      <c r="AA22" s="141"/>
+    </row>
+    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E23" s="60">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F23" s="60">
+        <v>3.2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="I23" s="52"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="126"/>
+      <c r="Q23" s="133"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="135"/>
+      <c r="W23" s="142"/>
+      <c r="X23" s="143"/>
+      <c r="Y23" s="143"/>
+      <c r="Z23" s="143"/>
+      <c r="AA23" s="144"/>
+    </row>
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E24" s="60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F24" s="60">
+        <v>3.3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="H24" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="I24" s="52"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="126"/>
+      <c r="Q24" s="133"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="135"/>
+      <c r="W24" s="142"/>
+      <c r="X24" s="143"/>
+      <c r="Y24" s="143"/>
+      <c r="Z24" s="143"/>
+      <c r="AA24" s="144"/>
+      <c r="AE24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="E25" s="60">
+        <v>2.4</v>
+      </c>
+      <c r="F25" s="60">
+        <v>3.4</v>
+      </c>
+      <c r="G25" s="70">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H25" s="61">
+        <v>5.4</v>
+      </c>
+      <c r="I25" s="52"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="126"/>
+      <c r="Q25" s="133"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="135"/>
+      <c r="W25" s="142"/>
+      <c r="X25" s="143"/>
+      <c r="Y25" s="143"/>
+      <c r="Z25" s="143"/>
+      <c r="AA25" s="144"/>
+      <c r="AE25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G26" s="60">
+        <v>4.5</v>
+      </c>
+      <c r="H26" s="61">
+        <v>5.5</v>
+      </c>
+      <c r="I26" s="52"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="126"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="135"/>
+      <c r="W26" s="142"/>
+      <c r="X26" s="143"/>
+      <c r="Y26" s="143"/>
+      <c r="Z26" s="143"/>
+      <c r="AA26" s="144"/>
+      <c r="AE26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="F27" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H27" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="I27" s="52"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="129"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="138"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="146"/>
+      <c r="Z27" s="146"/>
+      <c r="AA27" s="147"/>
+    </row>
+    <row r="29" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="157">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F29" s="157"/>
+      <c r="J29" s="157">
+        <v>2.1</v>
+      </c>
+      <c r="K29" s="157"/>
+      <c r="O29" s="157">
+        <v>3.1</v>
+      </c>
+      <c r="P29" s="157"/>
+      <c r="S29" s="158"/>
+      <c r="T29" s="158"/>
+    </row>
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E30" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="F30" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="G30" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H30" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I30" s="71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J30" s="72">
+        <v>2.1</v>
+      </c>
+      <c r="K30" s="72">
+        <v>3.1</v>
+      </c>
+      <c r="L30" s="72">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M30" s="73">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N30" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O30" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="P30" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="Q30" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R30" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="E31" s="24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F31" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="G31" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="H31" s="25">
+        <v>5.2</v>
+      </c>
+      <c r="I31" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="J31" s="60">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K31" s="60">
+        <v>3.2</v>
+      </c>
+      <c r="L31" s="60">
+        <v>4.2</v>
+      </c>
+      <c r="M31" s="61">
+        <v>5.2</v>
+      </c>
+      <c r="N31" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="O31" s="60">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P31" s="60">
+        <v>3.2</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="R31" s="25">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="E32" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F32" s="24">
+        <v>3.3</v>
+      </c>
+      <c r="G32" s="24">
+        <v>4.3</v>
+      </c>
+      <c r="H32" s="25">
+        <v>5.3</v>
+      </c>
+      <c r="I32" s="74">
+        <v>1.3</v>
+      </c>
+      <c r="J32" s="60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K32" s="60">
+        <v>3.3</v>
+      </c>
+      <c r="L32" s="60">
+        <v>4.3</v>
+      </c>
+      <c r="M32" s="61">
+        <v>5.3</v>
+      </c>
+      <c r="N32" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="O32" s="60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P32" s="60">
+        <v>3.3</v>
+      </c>
+      <c r="Q32" s="24">
+        <v>4.3</v>
+      </c>
+      <c r="R32" s="25">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="E33" s="24">
+        <v>2.4</v>
+      </c>
+      <c r="F33" s="24">
+        <v>3.4</v>
+      </c>
+      <c r="G33" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H33" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="I33" s="74">
+        <v>1.4</v>
+      </c>
+      <c r="J33" s="60">
+        <v>2.4</v>
+      </c>
+      <c r="K33" s="60">
+        <v>3.4</v>
+      </c>
+      <c r="L33" s="60">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M33" s="61">
+        <v>5.4</v>
+      </c>
+      <c r="N33" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="O33" s="60">
+        <v>2.4</v>
+      </c>
+      <c r="P33" s="60">
+        <v>3.4</v>
+      </c>
+      <c r="Q33" s="70">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R33" s="61">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E34" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="F34" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="G34" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="H34" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="I34" s="74">
+        <v>1.5</v>
+      </c>
+      <c r="J34" s="60">
+        <v>2.5</v>
+      </c>
+      <c r="K34" s="60">
+        <v>3.5</v>
+      </c>
+      <c r="L34" s="60">
+        <v>4.5</v>
+      </c>
+      <c r="M34" s="61">
+        <v>5.5</v>
+      </c>
+      <c r="N34" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="O34" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="P34" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="Q34" s="60">
+        <v>4.5</v>
+      </c>
+      <c r="R34" s="61">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="27">
+        <v>2.6</v>
+      </c>
+      <c r="F35" s="27">
+        <v>3.6</v>
+      </c>
+      <c r="G35" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H35" s="28">
+        <v>5.6</v>
+      </c>
+      <c r="I35" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="J35" s="76">
+        <v>2.6</v>
+      </c>
+      <c r="K35" s="76">
+        <v>3.6</v>
+      </c>
+      <c r="L35" s="76">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M35" s="77">
+        <v>5.6</v>
+      </c>
+      <c r="N35" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="O35" s="27">
+        <v>2.6</v>
+      </c>
+      <c r="P35" s="27">
+        <v>3.6</v>
+      </c>
+      <c r="Q35" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R35" s="28">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" s="159"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="159"/>
+      <c r="M36" s="159"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="159"/>
+      <c r="P36" s="159"/>
+      <c r="Q36" s="159"/>
+      <c r="R36" s="159"/>
+      <c r="S36" s="159"/>
+      <c r="T36" s="159"/>
+      <c r="U36" s="159"/>
+      <c r="V36" s="159"/>
+      <c r="W36" s="159"/>
+      <c r="X36" s="159"/>
+      <c r="Y36" s="159"/>
+      <c r="Z36" s="159"/>
+      <c r="AA36" s="159"/>
+      <c r="AB36" s="159"/>
+      <c r="AC36" s="159"/>
+      <c r="AD36" s="159"/>
+      <c r="AE36" s="159"/>
+      <c r="AF36" s="159"/>
+      <c r="AG36" s="159"/>
+      <c r="AH36" s="159"/>
+      <c r="AI36" s="159"/>
+      <c r="AJ36" s="159"/>
+      <c r="AK36" s="159"/>
+      <c r="AL36" s="159"/>
+      <c r="AM36" s="159"/>
+    </row>
+    <row r="39" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="52"/>
+      <c r="K40" s="121" t="s">
+        <v>133</v>
+      </c>
+      <c r="L40" s="122"/>
+      <c r="M40" s="122"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="123"/>
+      <c r="Q40" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="R40" s="131"/>
+      <c r="S40" s="131"/>
+      <c r="T40" s="131"/>
+      <c r="U40" s="132"/>
+      <c r="W40" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="X40" s="140"/>
+      <c r="Y40" s="140"/>
+      <c r="Z40" s="140"/>
+      <c r="AA40" s="141"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I41" s="52"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="125"/>
+      <c r="O41" s="126"/>
+      <c r="Q41" s="133"/>
+      <c r="R41" s="134"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="134"/>
+      <c r="U41" s="135"/>
+      <c r="W41" s="142"/>
+      <c r="X41" s="143"/>
+      <c r="Y41" s="143"/>
+      <c r="Z41" s="143"/>
+      <c r="AA41" s="144"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D42" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" s="52"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="126"/>
+      <c r="Q42" s="133"/>
+      <c r="R42" s="134"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="134"/>
+      <c r="U42" s="135"/>
+      <c r="W42" s="142"/>
+      <c r="X42" s="143"/>
+      <c r="Y42" s="143"/>
+      <c r="Z42" s="143"/>
+      <c r="AA42" s="144"/>
+      <c r="AE42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" s="52"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="125"/>
+      <c r="N43" s="125"/>
+      <c r="O43" s="126"/>
+      <c r="Q43" s="133"/>
+      <c r="R43" s="134"/>
+      <c r="S43" s="134"/>
+      <c r="T43" s="134"/>
+      <c r="U43" s="135"/>
+      <c r="W43" s="142"/>
+      <c r="X43" s="143"/>
+      <c r="Y43" s="143"/>
+      <c r="Z43" s="143"/>
+      <c r="AA43" s="144"/>
+      <c r="AE43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="I44" s="52"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="125"/>
+      <c r="O44" s="126"/>
+      <c r="Q44" s="133"/>
+      <c r="R44" s="134"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="135"/>
+      <c r="W44" s="142"/>
+      <c r="X44" s="143"/>
+      <c r="Y44" s="143"/>
+      <c r="Z44" s="143"/>
+      <c r="AA44" s="144"/>
+      <c r="AE44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I45" s="52"/>
+      <c r="K45" s="127"/>
+      <c r="L45" s="128"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="128"/>
+      <c r="O45" s="129"/>
+      <c r="Q45" s="136"/>
+      <c r="R45" s="137"/>
+      <c r="S45" s="137"/>
+      <c r="T45" s="137"/>
+      <c r="U45" s="138"/>
+      <c r="W45" s="145"/>
+      <c r="X45" s="146"/>
+      <c r="Y45" s="146"/>
+      <c r="Z45" s="146"/>
+      <c r="AA45" s="147"/>
+    </row>
+    <row r="47" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="157">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F47" s="157"/>
+      <c r="J47" s="157">
+        <v>2.1</v>
+      </c>
+      <c r="K47" s="157"/>
+      <c r="O47" s="157">
+        <v>3.1</v>
+      </c>
+      <c r="P47" s="157"/>
+      <c r="S47" s="158"/>
+      <c r="T47" s="158"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D48" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="J48" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="K48" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="M48" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D49" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="J49" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="K49" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="L49" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="M49" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O49" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="P49" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D50" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="J50" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="K50" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L50" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="M50" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O50" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="P50" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D51" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="I51" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="L51" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="M51" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O51" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="P51" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q51" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="R51" s="61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D52" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="I52" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K52" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="L52" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="M52" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q52" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="R52" s="61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I53" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="J53" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="K53" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="L53" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="M53" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A54" s="159"/>
+      <c r="B54" s="159"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="159"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="159"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="159"/>
+      <c r="M54" s="159"/>
+      <c r="N54" s="159"/>
+      <c r="O54" s="159"/>
+      <c r="P54" s="159"/>
+      <c r="Q54" s="159"/>
+      <c r="R54" s="159"/>
+      <c r="S54" s="159"/>
+      <c r="T54" s="159"/>
+      <c r="U54" s="159"/>
+      <c r="V54" s="159"/>
+      <c r="W54" s="159"/>
+      <c r="X54" s="159"/>
+      <c r="Y54" s="159"/>
+      <c r="Z54" s="159"/>
+      <c r="AA54" s="159"/>
+      <c r="AB54" s="159"/>
+      <c r="AC54" s="159"/>
+      <c r="AD54" s="159"/>
+      <c r="AE54" s="159"/>
+      <c r="AF54" s="159"/>
+      <c r="AG54" s="159"/>
+      <c r="AH54" s="159"/>
+      <c r="AI54" s="159"/>
+      <c r="AJ54" s="159"/>
+      <c r="AK54" s="159"/>
+      <c r="AL54" s="159"/>
+      <c r="AM54" s="159"/>
     </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="K40:O45"/>
+    <mergeCell ref="Q40:U45"/>
+    <mergeCell ref="W40:AA45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q22:U27"/>
+    <mergeCell ref="W22:AA27"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="K22:O27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="X12:AB17"/>
+    <mergeCell ref="K4:O9"/>
+    <mergeCell ref="R4:V9"/>
+    <mergeCell ref="Y4:AC9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="O11:P11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -30809,27 +33291,27 @@
         <v>1.5</v>
       </c>
       <c r="I4" s="52"/>
-      <c r="K4" s="122">
+      <c r="K4" s="121">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="124"/>
-      <c r="R4" s="140">
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123"/>
+      <c r="R4" s="130">
         <v>1.2</v>
       </c>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="141"/>
-      <c r="V4" s="142"/>
-      <c r="Y4" s="149">
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="132"/>
+      <c r="Y4" s="139">
         <v>1.3</v>
       </c>
-      <c r="Z4" s="150"/>
-      <c r="AA4" s="150"/>
-      <c r="AB4" s="150"/>
-      <c r="AC4" s="151"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="141"/>
       <c r="AJ4" s="63" t="s">
         <v>7</v>
       </c>
@@ -30852,21 +33334,21 @@
         <v>2.5</v>
       </c>
       <c r="I5" s="52"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="127"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="145"/>
-      <c r="Y5" s="152"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="154"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="126"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="135"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="144"/>
       <c r="AJ5" s="65"/>
       <c r="AK5" s="66" t="s">
         <v>30</v>
@@ -30889,21 +33371,21 @@
         <v>3.5</v>
       </c>
       <c r="I6" s="52"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="127"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="145"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
-      <c r="AB6" s="153"/>
-      <c r="AC6" s="154"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="126"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="135"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="144"/>
       <c r="AJ6" s="67"/>
       <c r="AK6" s="68" t="s">
         <v>6</v>
@@ -30926,21 +33408,21 @@
         <v>4.5</v>
       </c>
       <c r="I7" s="52"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="127"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="145"/>
-      <c r="Y7" s="152"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="153"/>
-      <c r="AB7" s="153"/>
-      <c r="AC7" s="154"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="126"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="135"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="144"/>
       <c r="AM7" s="63" t="s">
         <v>10</v>
       </c>
@@ -30971,21 +33453,21 @@
         <v>5.5</v>
       </c>
       <c r="I8" s="52"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="127"/>
-      <c r="R8" s="143"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="144"/>
-      <c r="V8" s="145"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
-      <c r="AB8" s="153"/>
-      <c r="AC8" s="154"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="126"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="135"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="144"/>
       <c r="AM8" s="65"/>
       <c r="AN8" s="66" t="s">
         <v>7</v>
@@ -31016,21 +33498,21 @@
         <v>6.5</v>
       </c>
       <c r="I9" s="52"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="130"/>
-      <c r="R9" s="146"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="148"/>
-      <c r="Y9" s="155"/>
-      <c r="Z9" s="156"/>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="156"/>
-      <c r="AC9" s="157"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="129"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="138"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="147"/>
       <c r="AJ9" s="63" t="s">
         <v>8</v>
       </c>
@@ -31097,18 +33579,18 @@
       </c>
     </row>
     <row r="16" spans="4:46" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="121">
+      <c r="E16" s="157">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F16" s="121"/>
-      <c r="J16" s="121">
+      <c r="F16" s="157"/>
+      <c r="J16" s="157">
         <v>1.2</v>
       </c>
-      <c r="K16" s="121"/>
-      <c r="O16" s="121">
+      <c r="K16" s="157"/>
+      <c r="O16" s="157">
         <v>1.3</v>
       </c>
-      <c r="P16" s="121"/>
+      <c r="P16" s="157"/>
       <c r="AJ16" s="65"/>
       <c r="AK16" s="66" t="s">
         <v>19</v>
@@ -31175,13 +33657,13 @@
       <c r="W17" s="80">
         <v>1.5</v>
       </c>
-      <c r="X17" s="122">
+      <c r="X17" s="121">
         <v>1.5</v>
       </c>
-      <c r="Y17" s="123"/>
-      <c r="Z17" s="123"/>
-      <c r="AA17" s="123"/>
-      <c r="AB17" s="124"/>
+      <c r="Y17" s="122"/>
+      <c r="Z17" s="122"/>
+      <c r="AA17" s="122"/>
+      <c r="AB17" s="123"/>
       <c r="AJ17" s="65"/>
       <c r="AK17" s="66" t="s">
         <v>12</v>
@@ -31248,11 +33730,11 @@
       <c r="W18" s="83">
         <v>2.5</v>
       </c>
-      <c r="X18" s="125"/>
-      <c r="Y18" s="126"/>
-      <c r="Z18" s="126"/>
-      <c r="AA18" s="126"/>
-      <c r="AB18" s="127"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="126"/>
       <c r="AJ18" s="65"/>
       <c r="AK18" s="66" t="s">
         <v>13</v>
@@ -31319,11 +33801,11 @@
       <c r="W19" s="83">
         <v>3.5</v>
       </c>
-      <c r="X19" s="125"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="126"/>
-      <c r="AA19" s="126"/>
-      <c r="AB19" s="127"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="126"/>
       <c r="AJ19" s="65"/>
       <c r="AK19" s="66" t="s">
         <v>24</v>
@@ -31390,11 +33872,11 @@
       <c r="W20" s="83">
         <v>4.5</v>
       </c>
-      <c r="X20" s="125"/>
-      <c r="Y20" s="126"/>
-      <c r="Z20" s="126"/>
-      <c r="AA20" s="126"/>
-      <c r="AB20" s="127"/>
+      <c r="X20" s="124"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="125"/>
+      <c r="AB20" s="126"/>
       <c r="AJ20" s="65"/>
       <c r="AK20" s="66" t="s">
         <v>28</v>
@@ -31461,11 +33943,11 @@
       <c r="W21" s="83">
         <v>5.5</v>
       </c>
-      <c r="X21" s="125"/>
-      <c r="Y21" s="126"/>
-      <c r="Z21" s="126"/>
-      <c r="AA21" s="126"/>
-      <c r="AB21" s="127"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="125"/>
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="125"/>
+      <c r="AB21" s="126"/>
       <c r="AJ21" s="65"/>
       <c r="AK21" s="66" t="s">
         <v>21</v>
@@ -31532,383 +34014,383 @@
       <c r="W22" s="86">
         <v>6.5</v>
       </c>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="129"/>
-      <c r="Z22" s="129"/>
-      <c r="AA22" s="129"/>
-      <c r="AB22" s="130"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="129"/>
       <c r="AJ22" s="65"/>
       <c r="AK22" s="66" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="4:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="122">
+      <c r="D23" s="121">
         <v>2.1</v>
       </c>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="122">
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="121">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="122">
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="121">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="131">
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="148">
         <v>2.4</v>
       </c>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="133"/>
-      <c r="X23" s="149">
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="139">
         <v>2.5</v>
       </c>
-      <c r="Y23" s="150"/>
-      <c r="Z23" s="150"/>
-      <c r="AA23" s="150"/>
-      <c r="AB23" s="151"/>
+      <c r="Y23" s="140"/>
+      <c r="Z23" s="140"/>
+      <c r="AA23" s="140"/>
+      <c r="AB23" s="141"/>
       <c r="AJ23" s="67"/>
       <c r="AK23" s="68" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="136"/>
-      <c r="X24" s="152"/>
-      <c r="Y24" s="153"/>
-      <c r="Z24" s="153"/>
-      <c r="AA24" s="153"/>
-      <c r="AB24" s="154"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="152"/>
+      <c r="W24" s="153"/>
+      <c r="X24" s="142"/>
+      <c r="Y24" s="143"/>
+      <c r="Z24" s="143"/>
+      <c r="AA24" s="143"/>
+      <c r="AB24" s="144"/>
     </row>
     <row r="25" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="134"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="136"/>
-      <c r="X25" s="152"/>
-      <c r="Y25" s="153"/>
-      <c r="Z25" s="153"/>
-      <c r="AA25" s="153"/>
-      <c r="AB25" s="154"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="151"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="152"/>
+      <c r="W25" s="153"/>
+      <c r="X25" s="142"/>
+      <c r="Y25" s="143"/>
+      <c r="Z25" s="143"/>
+      <c r="AA25" s="143"/>
+      <c r="AB25" s="144"/>
     </row>
     <row r="26" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="134"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="136"/>
-      <c r="X26" s="152"/>
-      <c r="Y26" s="153"/>
-      <c r="Z26" s="153"/>
-      <c r="AA26" s="153"/>
-      <c r="AB26" s="154"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="151"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="152"/>
+      <c r="W26" s="153"/>
+      <c r="X26" s="142"/>
+      <c r="Y26" s="143"/>
+      <c r="Z26" s="143"/>
+      <c r="AA26" s="143"/>
+      <c r="AB26" s="144"/>
     </row>
     <row r="27" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="136"/>
-      <c r="X27" s="152"/>
-      <c r="Y27" s="153"/>
-      <c r="Z27" s="153"/>
-      <c r="AA27" s="153"/>
-      <c r="AB27" s="154"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="152"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="152"/>
+      <c r="W27" s="153"/>
+      <c r="X27" s="142"/>
+      <c r="Y27" s="143"/>
+      <c r="Z27" s="143"/>
+      <c r="AA27" s="143"/>
+      <c r="AB27" s="144"/>
     </row>
     <row r="28" spans="4:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="128"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="130"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="139"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="157"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="146"/>
+      <c r="Z28" s="146"/>
+      <c r="AA28" s="146"/>
+      <c r="AB28" s="147"/>
     </row>
     <row r="29" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="122">
+      <c r="D29" s="121">
         <v>3.1</v>
       </c>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="122">
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="121">
         <v>3.2</v>
       </c>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="131">
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="148">
         <v>3.3</v>
       </c>
-      <c r="O29" s="132"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="132"/>
-      <c r="R29" s="133"/>
-      <c r="S29" s="122">
+      <c r="O29" s="149"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="149"/>
+      <c r="R29" s="150"/>
+      <c r="S29" s="121">
         <v>3.4</v>
       </c>
-      <c r="T29" s="123"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="123"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="122">
+      <c r="T29" s="122"/>
+      <c r="U29" s="122"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="123"/>
+      <c r="X29" s="121">
         <v>3.5</v>
       </c>
-      <c r="Y29" s="123"/>
-      <c r="Z29" s="123"/>
-      <c r="AA29" s="123"/>
-      <c r="AB29" s="124"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="122"/>
+      <c r="AA29" s="122"/>
+      <c r="AB29" s="123"/>
     </row>
     <row r="30" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="135"/>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="135"/>
-      <c r="R30" s="136"/>
-      <c r="S30" s="125"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="126"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="125"/>
-      <c r="Y30" s="126"/>
-      <c r="Z30" s="126"/>
-      <c r="AA30" s="126"/>
-      <c r="AB30" s="127"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="125"/>
+      <c r="W30" s="126"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="125"/>
+      <c r="Z30" s="125"/>
+      <c r="AA30" s="125"/>
+      <c r="AB30" s="126"/>
     </row>
     <row r="31" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="135"/>
-      <c r="R31" s="136"/>
-      <c r="S31" s="125"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="125"/>
-      <c r="Y31" s="126"/>
-      <c r="Z31" s="126"/>
-      <c r="AA31" s="126"/>
-      <c r="AB31" s="127"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="124"/>
+      <c r="T31" s="125"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="125"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="124"/>
+      <c r="Y31" s="125"/>
+      <c r="Z31" s="125"/>
+      <c r="AA31" s="125"/>
+      <c r="AB31" s="126"/>
     </row>
     <row r="32" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="135"/>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="135"/>
-      <c r="R32" s="136"/>
-      <c r="S32" s="125"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="126"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="125"/>
-      <c r="Y32" s="126"/>
-      <c r="Z32" s="126"/>
-      <c r="AA32" s="126"/>
-      <c r="AB32" s="127"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="125"/>
+      <c r="W32" s="126"/>
+      <c r="X32" s="124"/>
+      <c r="Y32" s="125"/>
+      <c r="Z32" s="125"/>
+      <c r="AA32" s="125"/>
+      <c r="AB32" s="126"/>
     </row>
     <row r="33" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="135"/>
-      <c r="R33" s="136"/>
-      <c r="S33" s="125"/>
-      <c r="T33" s="126"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="126"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="125"/>
-      <c r="Y33" s="126"/>
-      <c r="Z33" s="126"/>
-      <c r="AA33" s="126"/>
-      <c r="AB33" s="127"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="124"/>
+      <c r="T33" s="125"/>
+      <c r="U33" s="125"/>
+      <c r="V33" s="125"/>
+      <c r="W33" s="126"/>
+      <c r="X33" s="124"/>
+      <c r="Y33" s="125"/>
+      <c r="Z33" s="125"/>
+      <c r="AA33" s="125"/>
+      <c r="AB33" s="126"/>
     </row>
     <row r="34" spans="4:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="128"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="129"/>
-      <c r="L34" s="129"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="137"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="138"/>
-      <c r="Q34" s="138"/>
-      <c r="R34" s="139"/>
-      <c r="S34" s="128"/>
-      <c r="T34" s="129"/>
-      <c r="U34" s="129"/>
-      <c r="V34" s="129"/>
-      <c r="W34" s="130"/>
-      <c r="X34" s="128"/>
-      <c r="Y34" s="129"/>
-      <c r="Z34" s="129"/>
-      <c r="AA34" s="129"/>
-      <c r="AB34" s="130"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="155"/>
+      <c r="P34" s="155"/>
+      <c r="Q34" s="155"/>
+      <c r="R34" s="156"/>
+      <c r="S34" s="127"/>
+      <c r="T34" s="128"/>
+      <c r="U34" s="128"/>
+      <c r="V34" s="128"/>
+      <c r="W34" s="129"/>
+      <c r="X34" s="127"/>
+      <c r="Y34" s="128"/>
+      <c r="Z34" s="128"/>
+      <c r="AA34" s="128"/>
+      <c r="AB34" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D23:H28"/>
+    <mergeCell ref="I23:M28"/>
+    <mergeCell ref="N23:R28"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="D29:H34"/>
+    <mergeCell ref="I29:M34"/>
+    <mergeCell ref="N29:R34"/>
+    <mergeCell ref="S29:W34"/>
+    <mergeCell ref="X29:AB34"/>
     <mergeCell ref="K4:O9"/>
     <mergeCell ref="R4:V9"/>
     <mergeCell ref="Y4:AC9"/>
     <mergeCell ref="X17:AB22"/>
     <mergeCell ref="S23:W28"/>
     <mergeCell ref="X23:AB28"/>
-    <mergeCell ref="D29:H34"/>
-    <mergeCell ref="I29:M34"/>
-    <mergeCell ref="N29:R34"/>
-    <mergeCell ref="S29:W34"/>
-    <mergeCell ref="X29:AB34"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D23:H28"/>
-    <mergeCell ref="I23:M28"/>
-    <mergeCell ref="N23:R28"/>
-    <mergeCell ref="O16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -31920,7 +34402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -32061,838 +34543,606 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:AO37"/>
+  <dimension ref="A4:L95"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28:AO28"/>
+      <selection activeCell="B22" sqref="B22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="34" width="3.7109375" customWidth="1"/>
-    <col min="35" max="41" width="10.7109375" customWidth="1"/>
-    <col min="42" max="50" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="13" width="3.7109375" customWidth="1"/>
+    <col min="18" max="45" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E8" s="78">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F8" s="79">
-        <v>1.2</v>
-      </c>
-      <c r="G8" s="79">
-        <v>1.3</v>
-      </c>
-      <c r="H8" s="79">
-        <v>1.4</v>
-      </c>
-      <c r="I8" s="80">
-        <v>1.5</v>
-      </c>
-      <c r="J8" s="71">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K8" s="72">
-        <v>1.2</v>
-      </c>
-      <c r="L8" s="72">
-        <v>1.3</v>
-      </c>
-      <c r="M8" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="N8" s="73">
-        <v>1.5</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="S8" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="T8" s="78">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U8" s="79">
-        <v>1.2</v>
-      </c>
-      <c r="V8" s="79">
-        <v>1.3</v>
-      </c>
-      <c r="W8" s="79">
-        <v>1.4</v>
-      </c>
-      <c r="X8" s="80">
-        <v>1.5</v>
-      </c>
-      <c r="Y8" s="122">
-        <v>1.5</v>
-      </c>
-      <c r="Z8" s="123"/>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="123"/>
-      <c r="AC8" s="124"/>
-    </row>
-    <row r="9" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E9" s="81">
-        <v>2.1</v>
-      </c>
-      <c r="F9" s="82">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G9" s="82">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H9" s="82">
-        <v>2.4</v>
-      </c>
-      <c r="I9" s="83">
-        <v>2.5</v>
-      </c>
-      <c r="J9" s="74">
-        <v>2.1</v>
-      </c>
-      <c r="K9" s="60">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L9" s="60">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M9" s="60">
-        <v>2.4</v>
-      </c>
-      <c r="N9" s="61">
-        <v>2.5</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="P9" s="60">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q9" s="60">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="R9" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="S9" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="T9" s="81">
-        <v>2.1</v>
-      </c>
-      <c r="U9" s="82">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="V9" s="82">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W9" s="82">
-        <v>2.4</v>
-      </c>
-      <c r="X9" s="83">
-        <v>2.5</v>
-      </c>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="127"/>
-    </row>
-    <row r="10" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E10" s="81">
-        <v>3.1</v>
-      </c>
-      <c r="F10" s="82">
-        <v>3.2</v>
-      </c>
-      <c r="G10" s="82">
-        <v>3.3</v>
-      </c>
-      <c r="H10" s="82">
-        <v>3.4</v>
-      </c>
-      <c r="I10" s="83">
-        <v>3.5</v>
-      </c>
-      <c r="J10" s="74">
-        <v>3.1</v>
-      </c>
-      <c r="K10" s="60">
-        <v>3.2</v>
-      </c>
-      <c r="L10" s="60">
-        <v>3.3</v>
-      </c>
-      <c r="M10" s="60">
-        <v>3.4</v>
-      </c>
-      <c r="N10" s="61">
-        <v>3.5</v>
-      </c>
-      <c r="O10" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="P10" s="60">
-        <v>3.2</v>
-      </c>
-      <c r="Q10" s="60">
-        <v>3.3</v>
-      </c>
-      <c r="R10" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="S10" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="T10" s="81">
-        <v>3.1</v>
-      </c>
-      <c r="U10" s="60">
-        <v>3.2</v>
-      </c>
-      <c r="V10" s="60">
-        <v>3.3</v>
-      </c>
-      <c r="W10" s="82">
-        <v>3.4</v>
-      </c>
-      <c r="X10" s="83">
-        <v>3.5</v>
-      </c>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="127"/>
-    </row>
-    <row r="11" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E11" s="81">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F11" s="82">
-        <v>4.2</v>
-      </c>
-      <c r="G11" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="H11" s="82">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I11" s="83">
-        <v>4.5</v>
-      </c>
-      <c r="J11" s="74">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K11" s="60">
-        <v>4.2</v>
-      </c>
-      <c r="L11" s="60">
-        <v>4.3</v>
-      </c>
-      <c r="M11" s="60">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="N11" s="61">
-        <v>4.5</v>
-      </c>
-      <c r="O11" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P11" s="60">
-        <v>4.2</v>
-      </c>
-      <c r="Q11" s="60">
-        <v>4.3</v>
-      </c>
-      <c r="R11" s="70">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="S11" s="61">
-        <v>4.5</v>
-      </c>
-      <c r="T11" s="81">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="U11" s="60">
-        <v>4.2</v>
-      </c>
-      <c r="V11" s="60">
-        <v>4.3</v>
-      </c>
-      <c r="W11" s="82">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X11" s="83">
-        <v>4.5</v>
-      </c>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="126"/>
-      <c r="AB11" s="126"/>
-      <c r="AC11" s="127"/>
-    </row>
-    <row r="12" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E12" s="81">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F12" s="82">
-        <v>5.2</v>
-      </c>
-      <c r="G12" s="82">
-        <v>5.3</v>
-      </c>
-      <c r="H12" s="82">
-        <v>5.4</v>
-      </c>
-      <c r="I12" s="83">
-        <v>5.5</v>
-      </c>
-      <c r="J12" s="74">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K12" s="60">
-        <v>5.2</v>
-      </c>
-      <c r="L12" s="60">
-        <v>5.3</v>
-      </c>
-      <c r="M12" s="60">
-        <v>5.4</v>
-      </c>
-      <c r="N12" s="61">
-        <v>5.5</v>
-      </c>
-      <c r="O12" s="5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P12" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="R12" s="60">
-        <v>5.4</v>
-      </c>
-      <c r="S12" s="61">
-        <v>5.5</v>
-      </c>
-      <c r="T12" s="81">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="U12" s="82">
-        <v>5.2</v>
-      </c>
-      <c r="V12" s="82">
-        <v>5.3</v>
-      </c>
-      <c r="W12" s="82">
-        <v>5.4</v>
-      </c>
-      <c r="X12" s="83">
-        <v>5.5</v>
-      </c>
-      <c r="Y12" s="125"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="126"/>
-      <c r="AB12" s="126"/>
-      <c r="AC12" s="127"/>
-    </row>
-    <row r="13" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="84">
-        <v>6.1</v>
-      </c>
-      <c r="F13" s="85">
-        <v>6.2</v>
-      </c>
-      <c r="G13" s="85">
-        <v>6.3</v>
-      </c>
-      <c r="H13" s="85">
-        <v>6.4</v>
-      </c>
-      <c r="I13" s="86">
-        <v>6.5</v>
-      </c>
-      <c r="J13" s="75">
-        <v>6.1</v>
-      </c>
-      <c r="K13" s="76">
-        <v>6.2</v>
-      </c>
-      <c r="L13" s="76">
-        <v>6.3</v>
-      </c>
-      <c r="M13" s="76">
-        <v>6.4</v>
-      </c>
-      <c r="N13" s="77">
-        <v>6.5</v>
-      </c>
-      <c r="O13" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="P13" s="8">
-        <v>6.2</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>6.3</v>
-      </c>
-      <c r="R13" s="8">
-        <v>6.4</v>
-      </c>
-      <c r="S13" s="9">
-        <v>6.5</v>
-      </c>
-      <c r="T13" s="84">
-        <v>6.1</v>
-      </c>
-      <c r="U13" s="85">
-        <v>6.2</v>
-      </c>
-      <c r="V13" s="85">
-        <v>6.3</v>
-      </c>
-      <c r="W13" s="85">
-        <v>6.4</v>
-      </c>
-      <c r="X13" s="86">
-        <v>6.5</v>
-      </c>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="129"/>
-      <c r="AA13" s="129"/>
-      <c r="AB13" s="129"/>
-      <c r="AC13" s="130"/>
-    </row>
-    <row r="14" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E14" s="122">
-        <v>2.1</v>
-      </c>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="122">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="122">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="131">
-        <v>2.4</v>
-      </c>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="149">
-        <v>2.5</v>
-      </c>
-      <c r="Z14" s="150"/>
-      <c r="AA14" s="150"/>
-      <c r="AB14" s="150"/>
-      <c r="AC14" s="151"/>
-    </row>
-    <row r="15" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E15" s="125"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="152"/>
-      <c r="Z15" s="153"/>
-      <c r="AA15" s="153"/>
-      <c r="AB15" s="153"/>
-      <c r="AC15" s="154"/>
-    </row>
-    <row r="16" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E16" s="125"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="136"/>
-      <c r="Y16" s="152"/>
-      <c r="Z16" s="153"/>
-      <c r="AA16" s="153"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="154"/>
-    </row>
-    <row r="17" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="E17" s="125"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="126"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="136"/>
-      <c r="Y17" s="152"/>
-      <c r="Z17" s="153"/>
-      <c r="AA17" s="153"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="154"/>
-    </row>
-    <row r="18" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="136"/>
-      <c r="Y18" s="152"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="154"/>
-    </row>
-    <row r="19" spans="5:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="130"/>
-      <c r="T19" s="137"/>
-      <c r="U19" s="138"/>
-      <c r="V19" s="138"/>
-      <c r="W19" s="138"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="156"/>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="157"/>
-    </row>
-    <row r="20" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="E20" s="122">
-        <v>3.1</v>
-      </c>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="122">
-        <v>3.2</v>
-      </c>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="131">
-        <v>3.3</v>
-      </c>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="133"/>
-      <c r="T20" s="122">
-        <v>3.4</v>
-      </c>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123"/>
-      <c r="X20" s="124"/>
-      <c r="Y20" s="122">
-        <v>3.5</v>
-      </c>
-      <c r="Z20" s="123"/>
-      <c r="AA20" s="123"/>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="124"/>
-    </row>
-    <row r="21" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="136"/>
-      <c r="T21" s="125"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="126"/>
-      <c r="AA21" s="126"/>
-      <c r="AB21" s="126"/>
-      <c r="AC21" s="127"/>
-    </row>
-    <row r="22" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="135"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="136"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="126"/>
-      <c r="AA22" s="126"/>
-      <c r="AB22" s="126"/>
-      <c r="AC22" s="127"/>
-    </row>
-    <row r="23" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="135"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="136"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="126"/>
-      <c r="AB23" s="126"/>
-      <c r="AC23" s="127"/>
-    </row>
-    <row r="24" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="136"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="126"/>
-      <c r="AB24" s="126"/>
-      <c r="AC24" s="127"/>
-    </row>
-    <row r="25" spans="5:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="138"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="129"/>
-      <c r="W25" s="129"/>
-      <c r="X25" s="130"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="129"/>
-      <c r="AA25" s="129"/>
-      <c r="AB25" s="129"/>
-      <c r="AC25" s="130"/>
-    </row>
-    <row r="27" spans="5:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="5:41" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AI28" s="158"/>
-      <c r="AJ28" s="159"/>
-      <c r="AK28" s="159"/>
-      <c r="AL28" s="159"/>
-      <c r="AM28" s="159"/>
-      <c r="AN28" s="159"/>
-      <c r="AO28" s="160"/>
-    </row>
-    <row r="29" spans="5:41" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AI29" s="158"/>
-      <c r="AJ29" s="159"/>
-      <c r="AK29" s="159"/>
-      <c r="AL29" s="159"/>
-      <c r="AM29" s="159"/>
-      <c r="AN29" s="159"/>
-      <c r="AO29" s="160"/>
-    </row>
-    <row r="30" spans="5:41" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AI30" s="158"/>
-      <c r="AJ30" s="159"/>
-      <c r="AK30" s="159"/>
-      <c r="AL30" s="159"/>
-      <c r="AM30" s="159"/>
-      <c r="AN30" s="159"/>
-      <c r="AO30" s="160"/>
-    </row>
-    <row r="31" spans="5:41" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AI31" s="158"/>
-      <c r="AJ31" s="159"/>
-      <c r="AK31" s="159"/>
-      <c r="AL31" s="159"/>
-      <c r="AM31" s="159"/>
-      <c r="AN31" s="159"/>
-      <c r="AO31" s="160"/>
-    </row>
-    <row r="32" spans="5:41" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AI32" s="158"/>
-      <c r="AJ32" s="159"/>
-      <c r="AK32" s="159"/>
-      <c r="AL32" s="159"/>
-      <c r="AM32" s="159"/>
-      <c r="AN32" s="159"/>
-      <c r="AO32" s="160"/>
-    </row>
-    <row r="33" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="118" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="118" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="119" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="119"/>
+      <c r="B15" s="120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="119"/>
+      <c r="B16" s="118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="119"/>
+      <c r="B17" s="120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="119"/>
+      <c r="B18" s="118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="119"/>
+      <c r="B19" s="120" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="119"/>
+      <c r="B20" s="118" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="118" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="118" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="118" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="118" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="118" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="118" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="118" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="118" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="118" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="118" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="118" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="118" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="118" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="118" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="118" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="118" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="118" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="118" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="118" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="118" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="118" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="118" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="119" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="118" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="118" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="118" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="118" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="118" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="118" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="118" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="118" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="118" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="118" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="118" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="118" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="118" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="118" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="118" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="118" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="118" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="118" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="120" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="118" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="118" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="118" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="118" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="AI29:AO29"/>
-    <mergeCell ref="AI30:AO30"/>
-    <mergeCell ref="AI31:AO31"/>
-    <mergeCell ref="AI32:AO32"/>
-    <mergeCell ref="E20:I25"/>
-    <mergeCell ref="J20:N25"/>
-    <mergeCell ref="O20:S25"/>
-    <mergeCell ref="T20:X25"/>
-    <mergeCell ref="Y20:AC25"/>
-    <mergeCell ref="AI28:AO28"/>
-    <mergeCell ref="Y8:AC13"/>
-    <mergeCell ref="E14:I19"/>
-    <mergeCell ref="J14:N19"/>
-    <mergeCell ref="O14:S19"/>
-    <mergeCell ref="T14:X19"/>
-    <mergeCell ref="Y14:AC19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Designs/Duckting_Grid.xlsx
+++ b/Designs/Duckting_Grid.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="166">
   <si>
     <t>Cuboid1</t>
   </si>
@@ -545,12 +545,15 @@
       <t>ColRow</t>
     </r>
   </si>
+  <si>
+    <t>F001: Add Address Definition enumarals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +594,14 @@
       <b/>
       <u/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1011,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1252,6 +1263,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7514,10 +7533,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AC48" sqref="AC48"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7532,7 +7554,11 @@
     <col min="39" max="39" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="4:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P1" s="167" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="2" spans="4:39" x14ac:dyDescent="0.25">
       <c r="AF2" s="63" t="s">
         <v>10</v>
@@ -7801,10 +7827,10 @@
       <c r="AE10" t="s">
         <v>127</v>
       </c>
-      <c r="AI10" s="63" t="s">
+      <c r="AI10" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="AJ10" s="64"/>
+      <c r="AJ10" s="161"/>
     </row>
     <row r="11" spans="4:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="157">
@@ -7826,8 +7852,8 @@
       <c r="AE11" t="s">
         <v>131</v>
       </c>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="66" t="s">
+      <c r="AI11" s="162"/>
+      <c r="AJ11" s="163" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7902,8 +7928,8 @@
       <c r="AE12" t="s">
         <v>132</v>
       </c>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="68" t="s">
+      <c r="AI12" s="164"/>
+      <c r="AJ12" s="165" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8040,10 +8066,10 @@
       <c r="Z14" s="125"/>
       <c r="AA14" s="125"/>
       <c r="AB14" s="126"/>
-      <c r="AI14" s="63" t="s">
+      <c r="AI14" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="AJ14" s="64"/>
+      <c r="AJ14" s="161"/>
     </row>
     <row r="15" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="81">
@@ -8111,8 +8137,8 @@
       <c r="Z15" s="125"/>
       <c r="AA15" s="125"/>
       <c r="AB15" s="126"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="66" t="s">
+      <c r="AI15" s="162"/>
+      <c r="AJ15" s="163" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8182,8 +8208,8 @@
       <c r="Z16" s="125"/>
       <c r="AA16" s="125"/>
       <c r="AB16" s="126"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="68" t="s">
+      <c r="AI16" s="164"/>
+      <c r="AJ16" s="165" t="s">
         <v>129</v>
       </c>
     </row>
@@ -8400,7 +8426,7 @@
       <c r="Y24" s="143"/>
       <c r="Z24" s="143"/>
       <c r="AA24" s="144"/>
-      <c r="AE24" t="s">
+      <c r="AE24" s="166" t="s">
         <v>164</v>
       </c>
     </row>
@@ -8953,7 +8979,7 @@
       <c r="Y42" s="143"/>
       <c r="Z42" s="143"/>
       <c r="AA42" s="144"/>
-      <c r="AE42" t="s">
+      <c r="AE42" s="166" t="s">
         <v>164</v>
       </c>
     </row>
@@ -9025,7 +9051,7 @@
       <c r="Y44" s="143"/>
       <c r="Z44" s="143"/>
       <c r="AA44" s="144"/>
-      <c r="AE44" t="s">
+      <c r="AE44" s="166" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9426,8 +9452,8 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="O11:P11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
